--- a/MyGuru99Testcase.xlsx
+++ b/MyGuru99Testcase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Testcase_Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Testcase_Document\MyTestcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Version</t>
   </si>
@@ -236,6 +236,21 @@
   <si>
     <t>The user ID and Password entered
  in the field should be wipped</t>
+  </si>
+  <si>
+    <t>Validate logging into the 
+Application using Keyboard
+ keys (Tab and Enter)</t>
+  </si>
+  <si>
+    <t>1. Open the application's URL
+2. Enter a valid user ID
+3. Enter an valid password
+4. Click on Tab or Enter key</t>
+  </si>
+  <si>
+    <t>User should be able to login to the
+application successfully</t>
   </si>
 </sst>
 </file>
@@ -428,24 +443,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,12 +451,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -483,6 +474,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,47 +809,47 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="5">
         <v>45027</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+      <c r="B10" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="4">
         <v>1.2</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="5">
         <v>44997</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -871,76 +886,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -953,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,142 +983,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
